--- a/biology/Écologie/Karoo-Namib/Karoo-Namib.xlsx
+++ b/biology/Écologie/Karoo-Namib/Karoo-Namib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karoo-Namib est une écorégion terrestre définie par le WWF.
 </t>
@@ -511,13 +523,12 @@
           <t>Situation générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La région de Karoo-Namib est immense et comprend une richesse en faune et en flore exceptionnelle. Cette partie du globe est influencée par un climat bien spécifique. C’est cette caractéristique qui lui offre tant de diversité ainsi qu’une flore particulière. Elle traverse plus de trois pays, dont sa plus grande superficie se trouve en Namibie.
 C’est une région sèche, parfois froide, venteuse et peu peuplée, ce qui a l'avantage d’un faible impact humain. Les quelques nomades qui peuplent cette région peuvent cependant causer de gros dégâts à la végétation avec leur bétail, qui broute une partie de la végétation. Les conditions environnementales ne permettent pas aux plantes de coloniser l’entière partie de cette région mais cette zone est immense et certains lieux durs d’accès. Peu d’hommes ont la capacité d’y séjourner. En constatant une telle diversité et une telle richesse patrimoniale, l’homme a décidé d’y fonder plusieurs parcs nationaux et réserves. Il existe par exemple en Namibie plusieurs parcs nationaux qui se trouvent sur cette phytorégion (Skeleton Coast N.P, Namib Naukluft N.P et Fish River Canyon N.P.).
-Situation géographique et topographique
-La région de Karoo-Namib s’étend le long de la côte Sud-Est de l’Afrique. Elle part du Sud de L’Angola jusqu’aux terres de l’Afrique du Sud, en traversant entièrement la Namibie. Plus on monte dans le nord et plus elle se rétrécit. Sa superficie est estimée à plus ou moins 660 000 km2.
-La région Karoo-Namib possède un relief très varié. Elle inclut la plaine côtière et également une partie du plateau intérieur qui se prolonge plus au moins loin dans les terres. Son altitude varie du niveau de l’océan à 2 695 mètres. Ce que l’on nomme Namib est en réalité un désert, qui s’étend tout le long de la Namibie et sur une petite partie en Angola, appelé désert de Mossamedes. Sur toute sa longueur, sa plus grande largeur est d’une centaine de kilomètres, allant de la côte aux pieds des escarpements. Ce désert est en grande partie couvert de sables mobiles et possède une région relativement escarpée, formée majoritairement de granite. Pour sa part, la région de Karoo est dans le prolongement du désert du Namib vers le sud. Elle s’étend jusqu’à dans la région du Cap et sur sa partie nord. Sa surface est assez uniforme malgré certaines fissures telles que des dykes et quelques vallées. Cette partie du globe possède un sol très argileux, qui a tendance à accumuler les sels. En effet, cela peut provoquer la formation de marais saumâtres (étendues d’eau plus au moins stagnantes avec une forte concentration de sel) qui sont souvent situés vers les embouchures.
 </t>
         </is>
       </c>
@@ -543,10 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Situation générale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Situation géographique et topographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de Karoo-Namib s’étend le long de la côte Sud-Est de l’Afrique. Elle part du Sud de L’Angola jusqu’aux terres de l’Afrique du Sud, en traversant entièrement la Namibie. Plus on monte dans le nord et plus elle se rétrécit. Sa superficie est estimée à plus ou moins 660 000 km2.
+La région Karoo-Namib possède un relief très varié. Elle inclut la plaine côtière et également une partie du plateau intérieur qui se prolonge plus au moins loin dans les terres. Son altitude varie du niveau de l’océan à 2 695 mètres. Ce que l’on nomme Namib est en réalité un désert, qui s’étend tout le long de la Namibie et sur une petite partie en Angola, appelé désert de Mossamedes. Sur toute sa longueur, sa plus grande largeur est d’une centaine de kilomètres, allant de la côte aux pieds des escarpements. Ce désert est en grande partie couvert de sables mobiles et possède une région relativement escarpée, formée majoritairement de granite. Pour sa part, la région de Karoo est dans le prolongement du désert du Namib vers le sud. Elle s’étend jusqu’à dans la région du Cap et sur sa partie nord. Sa surface est assez uniforme malgré certaines fissures telles que des dykes et quelques vallées. Cette partie du globe possède un sol très argileux, qui a tendance à accumuler les sels. En effet, cela peut provoquer la formation de marais saumâtres (étendues d’eau plus au moins stagnantes avec une forte concentration de sel) qui sont souvent situés vers les embouchures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La région de Karoo-Namib est aride et semi-aride. La région de Namib, composée majoritairement de déserts, est la partie aride, d’ailleurs l’une des plus vieilles du monde. Quant à la région de Karoo, celle-ci est considérée semi-aride.
 Sur toute la superficie de cette phytorégion, les précipitations ne sont pas réparties de manière homogène et leurs périodicités varient beaucoup. D’une année à l’autre, le volume et la localisation des pluies n’est pas la même, principalement dans les zones sèches. Le désert du Namib a une pluviosité inférieure à 10 mm par an. Ailleurs, la pluviométrie ne dépasse pas les 250 mm par an. Sur la côte ouest (contre l'Atlantique), 60 % des pluies tombent en hiver alors que sur la partie est, 60 % des pluies tombent durant la saison estivale. À noter que la côte ouest reçoit régulièrement des nuages de brouillard en été. Sur la partie côtière, il n’y a pas de gel, à l’exception de la partie Sud où, à de rares occasions, se produisent de légers gels. Par contre, plus à l’intérieur des terres de Namibie et dans la région du Cap, le gel peut durer jusqu’à six mois, malgré des températures n’atteignant pas moins de 0 °C.
@@ -554,37 +605,77 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Karoo-Namib</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Flore générale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans cette phytorégion, il existe plus de 3 500 espèces, dont la moitié au plus sont endémiques. Les facteurs permettant une telle diversité sont la localisation géographique, la topographie et le climat, en partie influencé par les deux précédents. La végétation est constituée de petits arbres buissonnants, d'arbustes nains, de grands arbustes, de plantes succulentes et de graminées.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette phytorégion, il existe plus de 3 500 espèces, dont la moitié au plus sont endémiques. Les facteurs permettant une telle diversité sont la localisation géographique, la topographie et le climat, en partie influencé par les deux précédents. La végétation est constituée de petits arbres buissonnants, d'arbustes nains, de grands arbustes, de plantes succulentes et de graminées.
 La distribution de ces plantes varie en fonction de la zone spécifique. Dans les lieux arides, la densité des plantes sur le sol est très faible, les arbustes et les buissons sont majoritairement présents le long des cours d’eau et assez rares sur le reste de ces régions sèches, mais ailleurs la densité de plante peut atteindre 50 %.
-Végétation des différentes zones
-Région de Namib
-Le désert de brouillard est composé de végétation très éparse, avec quelques pieds ici et là comme :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flore générale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Végétation des différentes zones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Région de Namib</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le désert de brouillard est composé de végétation très éparse, avec quelques pieds ici et là comme :
 Barleria solitaria
 Ectadium virgatum
 Indigofera cunenensis
@@ -623,17 +714,124 @@
 Eragrostis nindensis
 Stipagrostis brevifolia
 Tribulus zeyheri
-Welwitschia bainesii
-Région de Karoo
-Les formations végétales les plus fréquentes sont des steppes à buissons, d'herbes vivaces et de broussailles. Ces étendues végétales sont séparées par des espaces complètement dépourvus de plantes. Mais lorsqu'une rare pluie arrive, ces régions changent en un jardin fleurissant.
+Welwitschia bainesii</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Flore générale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Végétation des différentes zones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Région de Karoo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les formations végétales les plus fréquentes sont des steppes à buissons, d'herbes vivaces et de broussailles. Ces étendues végétales sont séparées par des espaces complètement dépourvus de plantes. Mais lorsqu'une rare pluie arrive, ces régions changent en un jardin fleurissant.
 L’Acacia corrida forme de véritables formations végétales le long de cours d'eau desséchés.
 Acacia detinens et Acacia girrafoe, qui sont des arbustes épineux, font de même. Les formations arbustives des plantes succulentes sont surtout présentes sur la plaine côtière très sablonneuse, sur les sols constitués de pierres dans les escarpements et dans les vallées non pluvieuses des montagnes. Cette phytorégion contient une zone semi-aride. Elle est principalement constituée de formation arbustives, à part vers les cours d'eau, où il y a de la forêt broussailleuse.
-Diverses familles
-Welwitschiaceae (endémique et ne possédant qu'une espèce, Welwitschia bainesii ).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Flore générale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Diverses familles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Welwitschiaceae (endémique et ne possédant qu'une espèce, Welwitschia bainesii ).
 Asclepiadaceae (6 genres endémiques et environ 160 espèces endémiques).
-Aizoaceae (95 genres endémiques et environ 1500 espèces endémiques).
-Divers genres
-En plus de ceux mentionnés au-dessus :
+Aizoaceae (95 genres endémiques et environ 1500 espèces endémiques).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Flore générale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Divers genres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de ceux mentionnés au-dessus :
 Adenolobus
 Arthraerua
 Augea
@@ -665,8 +863,43 @@
 Stipagrostis
 Tetragonia
 Zygophyllum
-Diverses espèces
-Certaines espèces présentes dans la région s'étalent bien au-delà de ses frontières. La région de Karoo-Namib possède une faible affinité spécifique avec la flore du Cap. Mais il existe plusieurs espèces de liaison avec le Nord et l'est, telles que :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Karoo-Namib</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Flore générale</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Diverses espèces</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Certaines espèces présentes dans la région s'étalent bien au-delà de ses frontières. La région de Karoo-Namib possède une faible affinité spécifique avec la flore du Cap. Mais il existe plusieurs espèces de liaison avec le Nord et l'est, telles que :
 Aloe speciosa
 Carissa haemetocarpa
 Crassula portulaceae
